--- a/calificaciones_alumnos_actualizado.xlsx
+++ b/calificaciones_alumnos_actualizado.xlsx
@@ -512,7 +512,7 @@
         <v>65.7</v>
       </c>
       <c r="I2" t="n">
-        <v>53.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +547,7 @@
         <v>91.2</v>
       </c>
       <c r="I3" t="n">
-        <v>73</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="4">
@@ -582,7 +582,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>14.9</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         <v>67.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +652,7 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>80.3</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="7">
@@ -687,7 +687,7 @@
         <v>76.8</v>
       </c>
       <c r="I7" t="n">
-        <v>53.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>95.8</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="9">
@@ -757,7 +757,7 @@
         <v>64</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -792,7 +792,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>24.1</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="11">
@@ -827,7 +827,7 @@
         <v>85</v>
       </c>
       <c r="I11" t="n">
-        <v>68.5</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="12">
@@ -862,7 +862,7 @@
         <v>77.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +897,7 @@
         <v>63.5</v>
       </c>
       <c r="I13" t="n">
-        <v>21.3</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="14">
@@ -932,7 +932,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>82.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>13.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="17">
@@ -1037,7 +1037,7 @@
         <v>80</v>
       </c>
       <c r="I17" t="n">
-        <v>87.59999999999999</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="18">
@@ -1072,7 +1072,7 @@
         <v>69.7</v>
       </c>
       <c r="I18" t="n">
-        <v>57.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="19">
@@ -1107,7 +1107,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>64.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1142,7 +1142,7 @@
         <v>82.2</v>
       </c>
       <c r="I20" t="n">
-        <v>55.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1177,7 +1177,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>32.2</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1212,7 +1212,7 @@
         <v>72.5</v>
       </c>
       <c r="I22" t="n">
-        <v>49.7</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1247,7 +1247,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>35</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="24">
@@ -1282,7 +1282,7 @@
         <v>76.3</v>
       </c>
       <c r="I24" t="n">
-        <v>77.3</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="25">
@@ -1317,7 +1317,7 @@
         <v>76</v>
       </c>
       <c r="I25" t="n">
-        <v>96</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1352,7 @@
         <v>82.5</v>
       </c>
       <c r="I26" t="n">
-        <v>22.9</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="27">
@@ -1387,7 +1387,7 @@
         <v>73.59999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>55.7</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="28">
@@ -1422,7 +1422,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>60.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="29">
@@ -1457,7 +1457,7 @@
         <v>84.2</v>
       </c>
       <c r="I29" t="n">
-        <v>72.8</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="30">
@@ -1492,7 +1492,7 @@
         <v>66.59999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>63.6</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="31">
@@ -1527,7 +1527,7 @@
         <v>81</v>
       </c>
       <c r="I31" t="n">
-        <v>57.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>62.7</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="33">
@@ -1597,7 +1597,7 @@
         <v>69.3</v>
       </c>
       <c r="I33" t="n">
-        <v>78.2</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="34">
@@ -1632,7 +1632,7 @@
         <v>69.3</v>
       </c>
       <c r="I34" t="n">
-        <v>32.8</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="35">
@@ -1667,7 +1667,7 @@
         <v>73.5</v>
       </c>
       <c r="I35" t="n">
-        <v>16.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1702,7 +1702,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1737,7 +1737,7 @@
         <v>63.3</v>
       </c>
       <c r="I37" t="n">
-        <v>26.7</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1772,7 +1772,7 @@
         <v>74.59999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>12.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="39">
@@ -1807,7 +1807,7 @@
         <v>79.8</v>
       </c>
       <c r="I39" t="n">
-        <v>89.09999999999999</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="40">
@@ -1842,7 +1842,7 @@
         <v>67.7</v>
       </c>
       <c r="I40" t="n">
-        <v>17.5</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="41">
@@ -1877,7 +1877,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>53.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="42">
@@ -1912,7 +1912,7 @@
         <v>75.5</v>
       </c>
       <c r="I42" t="n">
-        <v>31.6</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="43">
@@ -1947,7 +1947,7 @@
         <v>70.3</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="44">
@@ -1982,7 +1982,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>66.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -2017,7 +2017,7 @@
         <v>76.09999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>21.3</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2052,7 +2052,7 @@
         <v>85.09999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
   </sheetData>
